--- a/downloaded_files/CMPS407_Lecture-35544.xlsx
+++ b/downloaded_files/CMPS407_Lecture-35544.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Khaled Elsaid Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1161335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عصام الدين عبدالرؤوف محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Essam El Din Abdel Raouf</x:t>
   </x:si>
   <x:si>
     <x:t>1162125</x:t>
@@ -173,7 +182,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -473,7 +482,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T4"/>
+  <x:dimension ref="A1:T5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -481,9 +490,9 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="23.770625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="27.510625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="25.950625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="28.640625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -628,7 +637,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45916.0310148958</x:v>
+        <x:v>45936.591396956</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -645,6 +654,38 @@
       <x:c r="R4" s="2" t="s"/>
       <x:c r="S4" s="2" t="s"/>
       <x:c r="T4" s="2" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:20">
+      <x:c r="A5" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="3">
+        <x:v>45916.0310148958</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s"/>
+      <x:c r="G5" s="2" t="s"/>
+      <x:c r="H5" s="2" t="s"/>
+      <x:c r="I5" s="2" t="s"/>
+      <x:c r="J5" s="2" t="s"/>
+      <x:c r="K5" s="2" t="s"/>
+      <x:c r="L5" s="2" t="s"/>
+      <x:c r="M5" s="2" t="s"/>
+      <x:c r="N5" s="2" t="s"/>
+      <x:c r="O5" s="2" t="s"/>
+      <x:c r="P5" s="2" t="s"/>
+      <x:c r="Q5" s="2" t="s"/>
+      <x:c r="R5" s="2" t="s"/>
+      <x:c r="S5" s="2" t="s"/>
+      <x:c r="T5" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
